--- a/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>DAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>47007000</v>
+      </c>
+      <c r="E8" s="3">
         <v>44438000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41138000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39450000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40704000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40362000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37773000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36670000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35115000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21135000</v>
+      </c>
+      <c r="E9" s="3">
         <v>21190000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18132000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16237000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13947000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25313000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20964000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21658000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22430000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25872000</v>
+      </c>
+      <c r="E10" s="3">
         <v>23248000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23006000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23213000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26757000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15049000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16809000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15012000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12685000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,57 +902,63 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>35000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>984000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>402000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>570000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>310000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2581000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2329000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2222000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1886000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1835000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1771000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1658000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1565000</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40389000</v>
+      </c>
+      <c r="E17" s="3">
         <v>39174000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35172000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32454000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32902000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38424000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34373000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34613000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33208000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6618000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5264000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5966000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6996000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7802000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1938000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2057000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1907000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-113000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-466000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-643000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-164000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-216000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8779000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7480000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7722000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8239000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9473000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3493000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5037000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3386000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,84 +1130,93 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>481000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>650000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>852000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1005000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1094000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6198000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5151000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5500000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6353000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7157000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1072000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2527000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1025000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>769000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1431000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1216000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1901000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2158000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2631000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>413000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8013000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-85000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4767000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3935000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3599000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4195000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4526000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>659000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10540000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1009000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>854000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4767000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3935000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3599000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4195000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4526000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>659000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10540000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1009000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>854000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-394000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E32" s="3">
         <v>113000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>466000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>643000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>164000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>216000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4767000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3935000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3205000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4195000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4526000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>659000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10540000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1009000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>854000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4767000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3935000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3205000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4195000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4526000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>659000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10540000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1009000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>854000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,188 +1645,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2882000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1565000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1814000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2762000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1972000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2088000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2844000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2416000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2657000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>203000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>825000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>487000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1465000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1217000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1387000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>958000</v>
       </c>
       <c r="K42" s="3">
         <v>958000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>958000</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2854000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2314000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2377000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2064000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2139000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3222000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1612000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1693000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1563000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1055000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1329000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>891000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>697000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>852000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1063000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1023000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>367000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1203000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2958000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1247000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2783000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5054000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4185000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2182000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2184000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8249000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6340000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7804000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7451000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9056000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9158000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9651000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8272000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7729000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36937000</v>
+      </c>
+      <c r="E48" s="3">
         <v>34329000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67223000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24375000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23039000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53198000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21854000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20713000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20223000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14944000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14611000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19488000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14638000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14655000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19000000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14452000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14473000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14545000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4402000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4986000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4664000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4797000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6384000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8521000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6295000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1092000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1002000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64532000</v>
+      </c>
+      <c r="E54" s="3">
         <v>60266000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53671000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51261000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53134000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54005000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>52252000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44550000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43499000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3266000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2976000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3634000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2572000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2743000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2622000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2293000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2287000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1518000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2242000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1131000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1563000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1184000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1547000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1627000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1944000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14651000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14084000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13083000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11536000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13220000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13041000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12700000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9350000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9157000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20204000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18578000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18959000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15239000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17526000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16847000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14152000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13270000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12701000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8873000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8253000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6592000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6201000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6766000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8477000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9795000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11082000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11847000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20097000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19748000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15590000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17534000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17992000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19868000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16688000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22329000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20347000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>49174000</v>
+      </c>
+      <c r="E66" s="3">
         <v>46579000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41141000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38974000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42284000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45192000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40609000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46681000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44895000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12454000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10039000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8256000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7903000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7623000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3456000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3049000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7389000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8398000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15358000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13687000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12530000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12287000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10850000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8813000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11643000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2131000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1396000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4767000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3935000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3205000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4195000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4526000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>659000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10540000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1009000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>854000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2581000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2329000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2222000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1886000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1835000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1771000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1658000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1523000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8425000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7014000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5023000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7215000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7927000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4947000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4504000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2476000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2834000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4936000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5168000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3891000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3391000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2945000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2249000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2568000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1968000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1254000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4563000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4393000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5266000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3955000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2463000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2756000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1498000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-980000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-909000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-731000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-509000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-359000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-251000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-102000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2880000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1726000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-730000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4260000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4088000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3240000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1571000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3232,43 +3480,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>982000</v>
+      </c>
+      <c r="E102" s="3">
         <v>895000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-973000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-116000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-756000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>428000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-241000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-235000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>DAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17095000</v>
+      </c>
+      <c r="E8" s="3">
         <v>47007000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44438000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41138000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39450000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40704000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40362000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37773000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36670000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35115000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12480000</v>
+      </c>
+      <c r="E9" s="3">
         <v>21135000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21190000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18132000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16237000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13947000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25313000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20964000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21658000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22430000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4615000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25872000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23248000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23006000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23213000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26757000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15049000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16809000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15012000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12685000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,14 +907,17 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>4273000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -905,60 +925,66 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>35000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>984000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>402000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>570000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>310000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2581000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2329000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2222000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1886000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1835000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1771000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1658000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1565000</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29564000</v>
+      </c>
+      <c r="E17" s="3">
         <v>40389000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39174000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35172000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32454000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32902000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38424000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34373000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34613000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33208000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12469000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6618000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5264000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5966000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6996000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7802000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1938000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2057000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1907000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,79 +1083,86 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3086000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-420000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-113000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-466000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-643000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-164000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-216000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13243000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8779000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7480000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7722000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8239000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9473000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3493000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5037000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3386000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>32000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1133,90 +1173,99 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>481000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>650000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>852000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1005000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1094000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15587000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6198000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5151000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5500000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6353000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7157000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1072000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2527000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1025000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>769000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3202000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1431000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1216000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1901000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2158000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2631000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>413000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8013000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-85000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12385000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4767000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3935000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3599000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4195000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4526000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>659000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10540000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1009000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>854000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12385000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4767000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3935000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3599000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4195000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4526000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>659000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10540000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1009000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>854000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,11 +1419,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-394000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3086000</v>
+      </c>
+      <c r="E32" s="3">
         <v>420000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>113000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>466000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>643000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>164000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>216000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12385000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4767000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3935000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3205000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4195000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4526000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>659000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10540000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1009000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>854000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12385000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4767000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3935000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3205000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4195000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4526000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>659000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10540000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1009000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>854000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,229 +1732,248 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8307000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2882000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1565000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1814000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2762000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1972000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2088000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2844000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2416000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2657000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>5789000</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>203000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>825000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>487000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1465000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1217000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1387000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>958000</v>
       </c>
       <c r="L42" s="3">
         <v>958000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>958000</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2854000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2314000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2377000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2064000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2139000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3222000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1612000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1693000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1563000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1251000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1055000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1329000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>891000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>697000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>852000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1063000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1023000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>367000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1180000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1262000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1203000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2958000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1247000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2783000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5054000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4185000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2182000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2184000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17404000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8249000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6340000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7804000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7451000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9056000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9158000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9651000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8272000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7729000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1665000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1876,75 +1981,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32262000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36937000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34329000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>67223000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24375000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23039000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53198000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21854000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20713000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20223000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15764000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14944000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14611000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19488000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14638000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14655000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19000000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14452000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14473000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14545000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4901000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4402000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4986000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4664000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4797000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6384000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8521000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6295000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1092000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1002000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71996000</v>
+      </c>
+      <c r="E54" s="3">
         <v>64532000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60266000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53671000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>51261000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53134000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54005000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>52252000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44550000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43499000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2840000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3266000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2976000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3634000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2572000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2743000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2622000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2293000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2287000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1518000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2242000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1131000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1563000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1184000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1547000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1627000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1944000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11355000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14651000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14084000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13083000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11536000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13220000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13041000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12700000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9350000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9157000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15927000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20204000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18578000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18959000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15239000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17526000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16847000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14152000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13270000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12701000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27425000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8873000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8253000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6592000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6201000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6766000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8477000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9795000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11082000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11847000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27110000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20097000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19748000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15590000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17534000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17992000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19868000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16688000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22329000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20347000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70462000</v>
+      </c>
+      <c r="E66" s="3">
         <v>49174000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46579000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41141000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38974000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42284000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45192000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40609000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46681000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44895000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-428000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12454000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10039000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8256000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7903000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7623000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3456000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3049000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7389000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8398000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15358000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13687000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12530000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12287000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10850000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8813000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11643000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2131000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1396000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12385000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4767000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3935000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3205000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4195000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4526000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>659000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10540000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1009000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>854000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2581000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2329000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2222000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1886000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1835000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1771000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1658000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1523000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3793000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8425000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7014000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5023000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7215000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7927000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4947000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4504000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2476000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2834000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1899000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4936000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5168000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3891000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3391000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2945000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2249000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2568000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1968000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1254000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9238000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4563000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4393000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5266000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3955000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2463000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2756000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1498000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-980000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-909000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-731000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-509000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-359000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-251000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-102000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19356000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2880000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1726000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-730000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4260000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4088000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3240000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1571000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3483,46 +3732,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6325000</v>
+      </c>
+      <c r="E102" s="3">
         <v>982000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>895000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-973000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-116000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-756000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>428000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-241000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-235000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>DAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29899000</v>
+      </c>
+      <c r="E8" s="3">
         <v>17095000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47007000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44438000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41138000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39450000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40704000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40362000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37773000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36670000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35115000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18352000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12480000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21135000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21190000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18132000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16237000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13947000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25313000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20964000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21658000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22430000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11547000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4615000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25872000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23248000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23006000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23213000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26757000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15049000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16809000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15012000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12685000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,17 +927,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4212000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4273000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -928,63 +948,69 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>35000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>984000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>402000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>570000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>310000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2312000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2581000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2329000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2222000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1886000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1835000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1771000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1658000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1565000</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28332000</v>
+      </c>
+      <c r="E17" s="3">
         <v>29564000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40389000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39174000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35172000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32454000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32902000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38424000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34373000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34613000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33208000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1567000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12469000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6618000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5264000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5966000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6996000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7802000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1938000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2057000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1907000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,88 +1117,95 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1114000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3086000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-420000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-113000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-466000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-643000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-164000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-216000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2451000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13243000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8779000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7480000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7722000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8239000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9473000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3493000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5037000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3386000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E22" s="3">
         <v>32000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1176,96 +1216,105 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>481000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>650000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>852000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1005000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1094000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15587000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6198000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5151000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5500000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6353000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7157000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1072000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2527000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1025000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>769000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3202000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1431000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1216000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1901000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2158000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2631000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>413000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8013000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-85000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12385000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4767000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3935000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3599000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4195000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4526000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>659000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10540000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1009000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>854000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12385000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4767000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3935000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3599000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4195000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4526000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>659000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10540000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1009000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>854000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,11 +1483,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-394000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1443,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1114000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3086000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>420000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>113000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>466000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>643000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>164000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>216000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12385000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4767000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3935000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3205000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4195000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4526000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>659000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10540000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1009000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>854000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12385000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4767000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3935000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3205000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4195000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4526000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>659000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10540000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1009000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>854000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,232 +1819,251 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7933000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8307000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2882000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1565000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1814000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2762000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1972000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2088000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2844000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2416000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2657000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3386000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5789000</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>203000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>825000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>487000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1465000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1217000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1387000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>958000</v>
       </c>
       <c r="M42" s="3">
         <v>958000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>958000</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2404000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1396000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2854000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2314000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2377000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2064000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2139000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3222000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1612000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1693000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1563000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="E44" s="3">
         <v>732000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1251000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1055000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1329000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>891000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>697000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>852000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1063000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1023000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>367000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1180000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1262000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1203000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2958000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1247000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2783000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5054000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4185000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2182000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2184000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15940000</v>
+      </c>
+      <c r="E46" s="3">
         <v>17404000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8249000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6340000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7804000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7451000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9056000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9158000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9651000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8272000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7729000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1665000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1975,8 +2080,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1984,81 +2089,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35986000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32262000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36937000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34329000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67223000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24375000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23039000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53198000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21854000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20713000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20223000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15754000</v>
+      </c>
+      <c r="E49" s="3">
         <v>15764000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14944000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14611000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19488000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14638000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14655000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19000000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14452000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14473000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14545000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3067000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4901000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4402000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4986000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4664000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4797000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6384000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8521000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6295000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1092000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1002000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72459000</v>
+      </c>
+      <c r="E54" s="3">
         <v>71996000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64532000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60266000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53671000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>51261000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53134000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>54005000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52252000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44550000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43499000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4240000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2840000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3266000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2976000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3634000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2572000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2743000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2622000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2293000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1782000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1732000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2287000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1518000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2242000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1131000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1563000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1184000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1547000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1627000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1944000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14944000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11355000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14651000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14084000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13083000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11536000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13220000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13041000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12700000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9350000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9157000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20966000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15927000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20204000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18578000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18959000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15239000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17526000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16847000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14152000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13270000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12701000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25138000</v>
+      </c>
+      <c r="E61" s="3">
         <v>27425000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8873000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8253000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6592000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6201000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6766000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8477000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9795000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11082000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11847000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22468000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27110000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20097000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19748000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15590000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17534000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17992000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19868000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16688000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22329000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20347000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68572000</v>
+      </c>
+      <c r="E66" s="3">
         <v>70462000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>49174000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46579000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41141000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38974000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>42284000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45192000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40609000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46681000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44895000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-428000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12454000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10039000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8256000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7903000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7623000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3456000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3049000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7389000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8398000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1534000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15358000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13687000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12530000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12287000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10850000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8813000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11643000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2131000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1396000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12385000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4767000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3935000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3205000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4195000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4526000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>659000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10540000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1009000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>854000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2312000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2581000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2329000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2222000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1886000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1835000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1771000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1658000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1523000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3264000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3793000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8425000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7014000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5023000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7215000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7927000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4947000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4504000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2476000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2834000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3247000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1899000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4936000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5168000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3891000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3391000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2945000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2249000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2568000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1968000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1254000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-898000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9238000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4563000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4393000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5266000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3955000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2463000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2756000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1498000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-260000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-980000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-909000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-731000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-509000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-359000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-251000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-102000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3912,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3852000</v>
+      </c>
+      <c r="E100" s="3">
         <v>19356000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2880000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1726000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-730000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4260000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4088000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3240000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1571000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3735,49 +3984,55 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6325000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>982000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>895000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-973000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-116000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-756000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>428000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-241000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-235000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>DAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>50582000</v>
+      </c>
+      <c r="E8" s="3">
         <v>29899000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17095000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47007000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44438000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41138000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39450000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40704000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40362000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37773000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36670000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35115000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28758000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18352000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12480000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21135000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21190000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18132000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16237000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13947000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25313000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20964000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21658000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22430000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21824000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11547000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4615000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25872000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23248000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23006000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23213000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26757000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15049000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16809000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15012000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12685000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,20 +946,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4212000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4273000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -951,66 +970,72 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>35000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>984000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>402000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>570000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>310000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2107000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1998000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2312000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2581000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2329000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2222000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1886000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1835000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1771000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1658000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1565000</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47021000</v>
+      </c>
+      <c r="E17" s="3">
         <v>28332000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29564000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40389000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39174000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35172000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32454000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32902000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38424000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34373000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34613000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33208000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3561000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1567000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12469000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6618000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5264000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5966000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6996000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7802000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1938000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2057000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1907000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,97 +1150,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1602000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1114000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3086000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-420000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-113000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-466000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-643000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-164000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-216000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-21000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-44000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4066000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2451000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13243000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8779000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7480000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7722000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8239000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9473000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3493000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5037000</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3386000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E22" s="3">
         <v>55000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1219,102 +1258,111 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>481000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>650000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>852000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1005000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1094000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1914000</v>
+      </c>
+      <c r="E23" s="3">
         <v>398000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15587000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6198000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5151000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5500000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6353000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7157000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1072000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2527000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1025000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>769000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E24" s="3">
         <v>118000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3202000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1431000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1216000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1901000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2158000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2631000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>413000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8013000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-85000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E26" s="3">
         <v>280000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12385000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4767000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3935000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3599000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4195000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4526000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>659000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10540000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1009000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>854000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E27" s="3">
         <v>280000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12385000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4767000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3935000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3599000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4195000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4526000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>659000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10540000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1009000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>854000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,11 +1546,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-394000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1114000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3086000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>420000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>113000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>466000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>643000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>164000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>216000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>21000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>44000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E33" s="3">
         <v>280000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12385000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4767000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3935000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3205000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4195000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4526000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>659000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10540000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1009000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>854000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E35" s="3">
         <v>280000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12385000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4767000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3935000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3205000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4195000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4526000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>659000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10540000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1009000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>854000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,253 +1905,272 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3266000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7933000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8307000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2882000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1565000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1814000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2762000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1972000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2088000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2844000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2416000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2657000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3268000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3386000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5789000</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>203000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>825000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>487000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1465000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1217000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1387000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>958000</v>
       </c>
       <c r="N42" s="3">
         <v>958000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>958000</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3176000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2404000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1396000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2854000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2314000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2377000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2064000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2139000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3222000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1612000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1693000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1563000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1098000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>732000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1251000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1055000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1329000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>891000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>697000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>852000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1063000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1023000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>367000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1119000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1180000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1262000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1203000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2958000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1247000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2783000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5054000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4185000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2182000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2184000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13011000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15940000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17404000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8249000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6340000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7804000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7451000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9056000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9158000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9651000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8272000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7729000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1712000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1665000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2083,8 +2187,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2092,87 +2196,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40145000</v>
+      </c>
+      <c r="E48" s="3">
         <v>35986000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32262000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36937000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34329000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67223000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24375000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23039000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53198000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21854000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20713000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20223000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15745000</v>
+      </c>
+      <c r="E49" s="3">
         <v>15754000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15764000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14944000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14611000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19488000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14638000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14655000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19000000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14452000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14473000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14545000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1259000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3067000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4901000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4402000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4986000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4664000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4797000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6384000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8521000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6295000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1092000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1002000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72288000</v>
+      </c>
+      <c r="E54" s="3">
         <v>72459000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71996000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64532000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60266000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53671000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51261000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53134000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54005000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52252000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44550000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43499000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5106000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4240000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2840000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3266000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2976000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3634000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2572000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2743000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2622000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2293000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2359000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1782000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1732000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2287000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1518000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2242000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1131000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1563000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1184000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1547000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1627000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1944000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18475000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14944000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11355000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14651000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14084000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13083000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11536000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13220000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13041000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12700000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9350000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9157000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25940000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20966000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15927000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20204000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18578000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18959000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15239000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17526000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16847000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14152000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13270000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12701000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20671000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25138000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27425000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8873000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8253000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6592000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6201000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6766000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8477000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9795000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11082000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11847000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19095000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22468000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27110000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20097000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19748000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15590000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17534000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17992000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19868000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16688000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22329000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20347000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65706000</v>
+      </c>
+      <c r="E66" s="3">
         <v>68572000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70462000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49174000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46579000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41141000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38974000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>42284000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45192000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40609000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46681000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44895000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-148000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-428000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12454000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10039000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8256000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7903000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7623000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3456000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3049000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7389000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8398000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6582000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3887000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1534000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15358000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13687000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12530000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12287000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10850000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8813000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11643000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2131000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1396000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E81" s="3">
         <v>280000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12385000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4767000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3935000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3205000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4195000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4526000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>659000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10540000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1009000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>854000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2107000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1998000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2312000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2581000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2329000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2222000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1886000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1835000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1771000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1658000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1523000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6363000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3264000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3793000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8425000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7014000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5023000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7215000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7927000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4947000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4504000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2476000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2834000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6366000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3247000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1899000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4936000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5168000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3891000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3391000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2945000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2249000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2568000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1968000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1254000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6924000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-898000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9238000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4563000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4393000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5266000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3955000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2463000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2756000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1498000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3769,38 +4002,41 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-260000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-980000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-909000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-731000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-509000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-359000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-251000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-102000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,48 +4157,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4535000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3852000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19356000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2880000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1726000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-730000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4260000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4088000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3240000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1571000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3987,52 +4235,58 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5096000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1486000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6325000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>982000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>895000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-973000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-116000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-756000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>428000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-241000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-235000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
